--- a/test/HMRC-Examples/CRYPTO22254.xlsx
+++ b/test/HMRC-Examples/CRYPTO22254.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgreen/Development/BittyTaxRelease/BittyTax/test/HMRC-examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgreen/Development/BittyTax/test/HMRC-Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3763B28E-53A3-F749-8FA4-3645B0BD0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211468B-36BD-6648-91C2-D4631E626729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17000" yWindow="4440" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,27 +37,18 @@
     <t>Buy Asset</t>
   </si>
   <si>
-    <t>Buy Value</t>
-  </si>
-  <si>
     <t>Sell Quantity</t>
   </si>
   <si>
     <t>Sell Asset</t>
   </si>
   <si>
-    <t>Sell Value</t>
-  </si>
-  <si>
     <t>Fee Quantity</t>
   </si>
   <si>
     <t>Fee Asset</t>
   </si>
   <si>
-    <t>Fee Value</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Acquisition of 500 token D for £35.</t>
+  </si>
+  <si>
+    <t>Buy Value in GBP</t>
+  </si>
+  <si>
+    <t>Sell Value in GBP</t>
+  </si>
+  <si>
+    <t>Fee Value in GBP</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,27 +163,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -249,18 +304,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coinbase" displayName="Coinbase" ref="A1:M10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coinbase" displayName="Coinbase" ref="A1:M10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Buy Quantity"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Buy Asset"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buy Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buy Value in GBP"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sell Quantity"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sell Asset"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sell Value"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sell Value in GBP"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fee Quantity"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fee Asset"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Value"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Value in GBP"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Wallet"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Timestamp"/>
     <tableColumn id="13" xr3:uid="{834792FD-48C5-7C4D-BCD0-F01C9978ACB6}" name="Note"/>
@@ -594,21 +649,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="83.5" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="5.6640625" customWidth="1"/>
     <col min="16" max="16" width="19.6640625" customWidth="1"/>
@@ -620,397 +678,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L3" s="4">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43831</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>500</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4">
+        <v>43861.375</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5">
-        <v>43831</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>500</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="5">
-        <v>43861.375</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
         <v>320</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4">
         <v>43861.416666666664</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4">
         <v>43861.458333333336</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
         <v>70</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4">
         <v>43861.5</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>142</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
         <v>2000</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4">
         <v>43861.541666666664</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>500</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
         <v>43861.583333333336</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B6">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>INT(B4)=B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>INT(E4)=E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H9">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>INT(H4)=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>INT(E5)=E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B11">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>INT(B6)=B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>INT(H6)=H6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7 E11">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>INT(E6)=E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INT(B7)=B7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>INT(E8)=E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>INT(B8)=B8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>INT(B3)=B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>INT(E3)=E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>INT(H3)=H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>INT(H10)=H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>INT(H10)=H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>INT(E10)=E10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>INT(B10)=B10</formula>
     </cfRule>
   </conditionalFormatting>
